--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_18_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4134.541294554183</v>
+        <v>822773.7176162829</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4134.541294554183</v>
+        <v>822773.7176162829</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94543.8162826225</v>
+        <v>6524798.122163212</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94543.8162826225</v>
+        <v>6524798.122163212</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419159768.275527</v>
+        <v>51575794.69338108</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16086.02250312122</v>
+        <v>1299813.732555433</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30454.25112549421</v>
+        <v>2304033.158524815</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44820.32303249621</v>
+        <v>3308252.584494198</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59298.82884368754</v>
+        <v>4306818.720155653</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73734.24345587888</v>
+        <v>5309788.055099108</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88169.6580680702</v>
+        <v>6312757.390042562</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>102450.9899159936</v>
+        <v>7353732.464616311</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>116688.8454002808</v>
+        <v>8386055.74282642</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>131100.8000037246</v>
+        <v>9376870.484309141</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145544.7009863997</v>
+        <v>10378282.49750341</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>159988.6019690748</v>
+        <v>11379694.51069768</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>174432.5029517498</v>
+        <v>12381106.52389195</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>188876.4039344249</v>
+        <v>13382518.53708622</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>203334.685810596</v>
+        <v>14382552.40584168</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>217828.870042139</v>
+        <v>15346056.30872767</v>
       </c>
     </row>
   </sheetData>
